--- a/medicine/Psychotrope/Bhang/Bhang.xlsx
+++ b/medicine/Psychotrope/Bhang/Bhang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bhang (hindi : भांग) désigne initialement des préparations comestibles de cannabis, le plus souvent liquides (lassi[1], thandai[2]) mais aussi solides, consommées depuis au moins 1000 ans avant notre ère en Inde et au Népal, pays dans lesquels ces préparations sont restées légales, et, entre autres, consommées au cours de certaines fêtes de l'hindouisme comme Holi, Janmashtami et Mahashivatri[3],[4].
+Bhang (hindi : भांग) désigne initialement des préparations comestibles de cannabis, le plus souvent liquides (lassi, thandai) mais aussi solides, consommées depuis au moins 1000 ans avant notre ère en Inde et au Népal, pays dans lesquels ces préparations sont restées légales, et, entre autres, consommées au cours de certaines fêtes de l'hindouisme comme Holi, Janmashtami et Mahashivatri,.
 En occident, un des modes de préparation (illégal) les plus connus aujourd'hui de bhang solide est le Space cake.
 </t>
         </is>
